--- a/breast_cancer_data_analysis.xlsx
+++ b/breast_cancer_data_analysis.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="test_size" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2055,8 +2056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K157" sqref="K157"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X11" sqref="P10:X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7243,7 +7244,7 @@
         <v>22985</v>
       </c>
       <c r="T98" s="27">
-        <f t="shared" ref="T98:T129" si="4">R98-S98</f>
+        <f t="shared" ref="T98:T104" si="4">R98-S98</f>
         <v>1</v>
       </c>
       <c r="U98" s="16"/>
@@ -8692,8 +8693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10847,11 +10848,11 @@
         <v>22985</v>
       </c>
       <c r="E98" s="27">
-        <f t="shared" ref="E98:E129" si="6">C98-D98</f>
+        <f t="shared" ref="E98:E104" si="6">C98-D98</f>
         <v>1</v>
       </c>
       <c r="F98" s="32">
-        <f t="shared" ref="F98:F129" si="7">D98/E98</f>
+        <f t="shared" ref="F98" si="7">D98/E98</f>
         <v>22985</v>
       </c>
     </row>
@@ -10970,4 +10971,353 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>30493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>17842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>69064</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>38413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>12284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>59799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>33097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>12723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>31548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>49701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>36136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>8010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>18156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>4746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>11957</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>7012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>5821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>29324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>36046</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>36665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>95758</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>61176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>53631</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>48725</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>15986</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>72584</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>10909</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>49044</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>20594</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>41872</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>15271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>5727</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <f>AVERAGE(B1:B40)</f>
+        <v>26591.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <f>B41*A40</f>
+        <v>1063660</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/breast_cancer_data_analysis.xlsx
+++ b/breast_cancer_data_analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2056,8 +2056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF175"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X11" sqref="P10:X11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10977,7 +10977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
